--- a/MainTop/26.12.2025 макс ВБ/макс_мес с 25.11.2025 по 25.12.2025/p2.xlsx
+++ b/MainTop/26.12.2025 макс ВБ/макс_мес с 25.11.2025 по 25.12.2025/p2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H44"/>
+  <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,35 +441,15 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Среднее количество заказов в день, шт</t>
+          <t>Num_Copies</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Остатки склад ВБ, шт</t>
+          <t>Тип упорядочить</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Остатки МП, шт</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>дней</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Num_Copies</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Тип упорядочить</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Имя папки</t>
         </is>
@@ -478,30 +458,18 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Термонаклейка Май Литл Пони радуга</t>
+          <t>Термонаклейка Черепашки Ниндзя классика</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>30</v>
-      </c>
-      <c r="F2" t="n">
-        <v>16</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2_а5</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
+        <v>24</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>2_а5</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>макс_мес с 25.11.2025 по 25.12.2025</t>
         </is>
@@ -510,30 +478,18 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Термонаклейка Миньоны горкой из 3 штук</t>
+          <t>Термонаклейка Май Литл Пони радуга</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>30</v>
-      </c>
-      <c r="F3" t="n">
         <v>16</v>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>2_а5</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2_а5</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>макс_мес с 25.11.2025 по 25.12.2025</t>
         </is>
@@ -542,30 +498,18 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Термонаклейка Минни Маус улыбка</t>
+          <t>Термонаклейка Миньоны горкой из 3 штук</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="C4" t="n">
-        <v>6</v>
-      </c>
-      <c r="D4" t="n">
-        <v>17</v>
-      </c>
-      <c r="E4" t="n">
-        <v>30</v>
-      </c>
-      <c r="F4" t="n">
-        <v>12</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>2_а5</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
+        <v>16</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2_а5</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>макс_мес с 25.11.2025 по 25.12.2025</t>
         </is>
@@ -574,30 +518,18 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Термонаклейка Единорог и бабочки</t>
+          <t>Термонаклейка Минни Маус улыбка</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>4</v>
-      </c>
-      <c r="E5" t="n">
-        <v>30</v>
-      </c>
-      <c r="F5" t="n">
         <v>12</v>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>2_а5</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2_а5</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>макс_мес с 25.11.2025 по 25.12.2025</t>
         </is>
@@ -606,30 +538,18 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Термонаклейка Спанч Боб руки в сторону</t>
+          <t>Термонаклейка Единорог и бабочки</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>8</v>
-      </c>
-      <c r="E6" t="n">
-        <v>30</v>
-      </c>
-      <c r="F6" t="n">
         <v>12</v>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>2_а5</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2_а5</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>макс_мес с 25.11.2025 по 25.12.2025</t>
         </is>
@@ -638,30 +558,18 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Термонаклейка Жираф с цветком во рту</t>
+          <t>Термонаклейка Спанч Боб руки в сторону</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>2</v>
-      </c>
-      <c r="E7" t="n">
-        <v>30</v>
-      </c>
-      <c r="F7" t="n">
         <v>12</v>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>2_а5</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2_а5</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>макс_мес с 25.11.2025 по 25.12.2025</t>
         </is>
@@ -670,30 +578,18 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Термонаклейка Марвел супергерои и надпись</t>
+          <t>Термонаклейка Жираф с цветком во рту</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="C8" t="n">
-        <v>3</v>
-      </c>
-      <c r="D8" t="n">
-        <v>13</v>
-      </c>
-      <c r="E8" t="n">
-        <v>30</v>
-      </c>
-      <c r="F8" t="n">
-        <v>8</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>2_а5</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
+        <v>12</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2_а5</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>макс_мес с 25.11.2025 по 25.12.2025</t>
         </is>
@@ -702,30 +598,18 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Термонаклейка Минни Маус сидит сердечки</t>
+          <t>Термонаклейка Марвел супергерои и надпись</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" t="n">
-        <v>21</v>
-      </c>
-      <c r="E9" t="n">
-        <v>30</v>
-      </c>
-      <c r="F9" t="n">
         <v>8</v>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>2_а5</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2_а5</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>макс_мес с 25.11.2025 по 25.12.2025</t>
         </is>
@@ -734,30 +618,18 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Термонаклейка Микки Маус надпись Дисней</t>
+          <t>Термонаклейка Минни Маус сидит сердечки</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>9</v>
-      </c>
-      <c r="E10" t="n">
-        <v>30</v>
-      </c>
-      <c r="F10" t="n">
         <v>8</v>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>2_а5</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2_а5</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>макс_мес с 25.11.2025 по 25.12.2025</t>
         </is>
@@ -766,30 +638,18 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Термонаклейка Минни Маус зайчик в руках</t>
+          <t>Термонаклейка Микки Маус надпись Дисней</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>2</v>
-      </c>
-      <c r="E11" t="n">
-        <v>30</v>
-      </c>
-      <c r="F11" t="n">
         <v>8</v>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>2_а5</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2_а5</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>макс_мес с 25.11.2025 по 25.12.2025</t>
         </is>
@@ -798,30 +658,18 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Термонаклейка Дракон полностью сломал стену</t>
+          <t>Термонаклейка Минни Маус зайчик в руках</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" t="n">
-        <v>4</v>
-      </c>
-      <c r="E12" t="n">
-        <v>30</v>
-      </c>
-      <c r="F12" t="n">
         <v>8</v>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>2_а5</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2_а5</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>макс_мес с 25.11.2025 по 25.12.2025</t>
         </is>
@@ -830,30 +678,18 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Термонаклейка Миньоны горкой из 6 штук</t>
+          <t>Термонаклейка Дракон полностью сломал стену</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" t="n">
-        <v>4</v>
-      </c>
-      <c r="E13" t="n">
-        <v>30</v>
-      </c>
-      <c r="F13" t="n">
         <v>8</v>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>2_а5</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2_а5</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>макс_мес с 25.11.2025 по 25.12.2025</t>
         </is>
@@ -862,30 +698,18 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Термонаклейка Человек Паук и Веном половинки</t>
+          <t>Термонаклейка Миньоны горкой из 6 штук</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="n">
         <v>8</v>
       </c>
-      <c r="E14" t="n">
-        <v>30</v>
-      </c>
-      <c r="F14" t="n">
-        <v>8</v>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>2_а5</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2_а5</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>макс_мес с 25.11.2025 по 25.12.2025</t>
         </is>
@@ -894,30 +718,18 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Термонаклейка Динозавр голова из стены</t>
+          <t>Термонаклейка Человек Паук и Веном половинки</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" t="n">
-        <v>6</v>
-      </c>
-      <c r="E15" t="n">
-        <v>30</v>
-      </c>
-      <c r="F15" t="n">
         <v>8</v>
       </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>2_а5</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2_а5</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>макс_мес с 25.11.2025 по 25.12.2025</t>
         </is>
@@ -926,30 +738,18 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Термонаклейка Котенок выглядывает из стены</t>
+          <t>Термонаклейка Динозавр голова из стены</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C16" t="n">
-        <v>2</v>
-      </c>
-      <c r="D16" t="n">
-        <v>13</v>
-      </c>
-      <c r="E16" t="n">
-        <v>30</v>
-      </c>
-      <c r="F16" t="n">
-        <v>4</v>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>2_а5</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
+        <v>8</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2_а5</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>макс_мес с 25.11.2025 по 25.12.2025</t>
         </is>
@@ -958,30 +758,18 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Термонаклейка Микки Маус подмигивает синий круг</t>
+          <t>Термонаклейка Котенок выглядывает из стены</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C17" t="n">
-        <v>2</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1</v>
-      </c>
-      <c r="E17" t="n">
-        <v>30</v>
-      </c>
-      <c r="F17" t="n">
-        <v>4</v>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>2_а5</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
+        <v>4</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2_а5</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>макс_мес с 25.11.2025 по 25.12.2025</t>
         </is>
@@ -990,30 +778,18 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Термонаклейка Кот вцепился сползает вниз</t>
+          <t>Термонаклейка Микки Маус подмигивает синий круг</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="C18" t="n">
-        <v>6</v>
-      </c>
-      <c r="D18" t="n">
-        <v>23</v>
-      </c>
-      <c r="E18" t="n">
-        <v>30</v>
-      </c>
-      <c r="F18" t="n">
-        <v>4</v>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>2_а5</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
+        <v>4</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2_а5</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>макс_мес с 25.11.2025 по 25.12.2025</t>
         </is>
@@ -1022,30 +798,18 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Термонаклейка Единорог и балерина</t>
+          <t>Термонаклейка Кот вцепился сползает вниз</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" t="n">
-        <v>7</v>
-      </c>
-      <c r="E19" t="n">
-        <v>30</v>
-      </c>
-      <c r="F19" t="n">
-        <v>4</v>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>2_а5</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
+        <v>4</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2_а5</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>макс_мес с 25.11.2025 по 25.12.2025</t>
         </is>
@@ -1054,30 +818,18 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Термонаклейка Минни Маус и Дейзи утка</t>
+          <t>Термонаклейка Единорог и балерина</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" t="n">
-        <v>8</v>
-      </c>
-      <c r="E20" t="n">
-        <v>30</v>
-      </c>
-      <c r="F20" t="n">
-        <v>4</v>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>2_а5</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
+        <v>4</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2_а5</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>макс_мес с 25.11.2025 по 25.12.2025</t>
         </is>
@@ -1086,30 +838,18 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Термонаклейка Микки Маус руки в стороны надпись</t>
+          <t>Термонаклейка Минни Маус и Дейзи утка</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" t="n">
-        <v>3</v>
-      </c>
-      <c r="E21" t="n">
-        <v>30</v>
-      </c>
-      <c r="F21" t="n">
-        <v>4</v>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>2_а5</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
+        <v>4</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2_а5</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>макс_мес с 25.11.2025 по 25.12.2025</t>
         </is>
@@ -1118,30 +858,18 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Термонаклейка Русалочка дисней</t>
+          <t>Термонаклейка Микки Маус руки в стороны надпись</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0</v>
-      </c>
-      <c r="D22" t="n">
-        <v>18</v>
-      </c>
-      <c r="E22" t="n">
-        <v>30</v>
-      </c>
-      <c r="F22" t="n">
-        <v>4</v>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>2_а5</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
+        <v>4</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2_а5</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>макс_мес с 25.11.2025 по 25.12.2025</t>
         </is>
@@ -1150,30 +878,18 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Термонаклейка Халк зеленый круг фон</t>
+          <t>Термонаклейка Русалочка дисней</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" t="n">
-        <v>4</v>
-      </c>
-      <c r="E23" t="n">
-        <v>30</v>
-      </c>
-      <c r="F23" t="n">
-        <v>4</v>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>2_а5</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
+        <v>4</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>2_а5</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>макс_мес с 25.11.2025 по 25.12.2025</t>
         </is>
@@ -1182,30 +898,18 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Термонаклейка Крокодил футбол</t>
+          <t>Термонаклейка Халк зеленый круг фон</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0</v>
-      </c>
-      <c r="D24" t="n">
-        <v>3</v>
-      </c>
-      <c r="E24" t="n">
-        <v>30</v>
-      </c>
-      <c r="F24" t="n">
-        <v>4</v>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>2_а5</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
+        <v>4</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>2_а5</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>макс_мес с 25.11.2025 по 25.12.2025</t>
         </is>
@@ -1214,30 +918,18 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Термонаклейка Пингвины с сердечками шарики</t>
+          <t>Термонаклейка Крокодил футбол</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" t="n">
-        <v>7</v>
-      </c>
-      <c r="E25" t="n">
-        <v>30</v>
-      </c>
-      <c r="F25" t="n">
-        <v>4</v>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>2_а5</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
+        <v>4</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>2_а5</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>макс_мес с 25.11.2025 по 25.12.2025</t>
         </is>
@@ -1246,30 +938,18 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Термонаклейка Минни Маус подмигивает в очках</t>
+          <t>Термонаклейка Пингвины с сердечками шарики</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" t="n">
-        <v>4</v>
-      </c>
-      <c r="E26" t="n">
-        <v>30</v>
-      </c>
-      <c r="F26" t="n">
-        <v>4</v>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>2_а5</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
+        <v>4</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>2_а5</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>макс_мес с 25.11.2025 по 25.12.2025</t>
         </is>
@@ -1278,30 +958,18 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Термонаклейка Черепашки Ниндзя надпись снизу</t>
+          <t>Термонаклейка Минни Маус подмигивает в очках</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="C27" t="n">
-        <v>1</v>
-      </c>
-      <c r="D27" t="n">
-        <v>2</v>
-      </c>
-      <c r="E27" t="n">
-        <v>30</v>
-      </c>
-      <c r="F27" t="n">
-        <v>4</v>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>2_а5</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
+        <v>4</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>2_а5</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>макс_мес с 25.11.2025 по 25.12.2025</t>
         </is>
@@ -1310,30 +978,18 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Термонаклейка Принцессы дисней</t>
+          <t>Термонаклейка Черепашки Ниндзя надпись снизу</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="C28" t="n">
-        <v>1</v>
-      </c>
-      <c r="D28" t="n">
-        <v>4</v>
-      </c>
-      <c r="E28" t="n">
-        <v>30</v>
-      </c>
-      <c r="F28" t="n">
-        <v>4</v>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>2_а5</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
+        <v>4</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>2_а5</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>макс_мес с 25.11.2025 по 25.12.2025</t>
         </is>
@@ -1342,30 +998,18 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Термонаклейка Черепашки Ниндзя фон треугольник</t>
+          <t>Термонаклейка Принцессы дисней</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="C29" t="n">
-        <v>1</v>
-      </c>
-      <c r="D29" t="n">
-        <v>5</v>
-      </c>
-      <c r="E29" t="n">
-        <v>30</v>
-      </c>
-      <c r="F29" t="n">
-        <v>4</v>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>2_а5</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
+        <v>4</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>2_а5</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>макс_мес с 25.11.2025 по 25.12.2025</t>
         </is>
@@ -1374,30 +1018,18 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Термонаклейка Минни Маус фея костюм</t>
+          <t>Термонаклейка Черепашки Ниндзя фон треугольник</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="C30" t="n">
-        <v>1</v>
-      </c>
-      <c r="D30" t="n">
-        <v>11</v>
-      </c>
-      <c r="E30" t="n">
-        <v>30</v>
-      </c>
-      <c r="F30" t="n">
-        <v>4</v>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>2_а5</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
+        <v>4</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>2_а5</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>макс_мес с 25.11.2025 по 25.12.2025</t>
         </is>
@@ -1406,30 +1038,18 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Термонаклейка Единорог в облаках</t>
+          <t>Термонаклейка Минни Маус фея костюм</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="C31" t="n">
-        <v>1</v>
-      </c>
-      <c r="D31" t="n">
-        <v>5</v>
-      </c>
-      <c r="E31" t="n">
-        <v>30</v>
-      </c>
-      <c r="F31" t="n">
-        <v>4</v>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>2_а5</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
+        <v>4</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>2_а5</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>макс_мес с 25.11.2025 по 25.12.2025</t>
         </is>
@@ -1438,30 +1058,18 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Термонаклейка Ежик праздник</t>
+          <t>Термонаклейка Единорог в облаках</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C32" t="n">
-        <v>5</v>
-      </c>
-      <c r="D32" t="n">
-        <v>3</v>
-      </c>
-      <c r="E32" t="n">
-        <v>30</v>
-      </c>
-      <c r="F32" t="n">
-        <v>4</v>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>2_а5</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
+        <v>4</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>2_а5</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>макс_мес с 25.11.2025 по 25.12.2025</t>
         </is>
@@ -1470,30 +1078,18 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Термонаклейка Том и Джерри в очках</t>
+          <t>Термонаклейка Ежик праздник</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C33" t="n">
-        <v>5</v>
-      </c>
-      <c r="D33" t="n">
-        <v>11</v>
-      </c>
-      <c r="E33" t="n">
-        <v>30</v>
-      </c>
-      <c r="F33" t="n">
-        <v>4</v>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>2_а5</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
+        <v>4</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>2_а5</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>макс_мес с 25.11.2025 по 25.12.2025</t>
         </is>
@@ -1502,30 +1098,18 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Термонаклейка Микки Маус и Минни сердечко</t>
+          <t>Термонаклейка Том и Джерри в очках</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="C34" t="n">
-        <v>2</v>
-      </c>
-      <c r="D34" t="n">
-        <v>12</v>
-      </c>
-      <c r="E34" t="n">
-        <v>30</v>
-      </c>
-      <c r="F34" t="n">
-        <v>4</v>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>2_а5</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
+        <v>4</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>2_а5</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>макс_мес с 25.11.2025 по 25.12.2025</t>
         </is>
@@ -1534,30 +1118,18 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Термонаклейка Динозавры</t>
+          <t>Термонаклейка Микки Маус и Минни сердечко</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="C35" t="n">
-        <v>2</v>
-      </c>
-      <c r="D35" t="n">
-        <v>2</v>
-      </c>
-      <c r="E35" t="n">
-        <v>30</v>
-      </c>
-      <c r="F35" t="n">
-        <v>4</v>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>2_а5</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
+        <v>4</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>2_а5</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>макс_мес с 25.11.2025 по 25.12.2025</t>
         </is>
@@ -1566,30 +1138,18 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Термонаклейка Русалочка акварелью</t>
+          <t>Термонаклейка Динозавры</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="C36" t="n">
-        <v>2</v>
-      </c>
-      <c r="D36" t="n">
-        <v>6</v>
-      </c>
-      <c r="E36" t="n">
-        <v>30</v>
-      </c>
-      <c r="F36" t="n">
-        <v>4</v>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>2_а5</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
+        <v>4</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>2_а5</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>макс_мес с 25.11.2025 по 25.12.2025</t>
         </is>
@@ -1598,30 +1158,18 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Термонаклейка Эльза холодное сердце</t>
+          <t>Термонаклейка Русалочка акварелью</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="C37" t="n">
-        <v>2</v>
-      </c>
-      <c r="D37" t="n">
-        <v>5</v>
-      </c>
-      <c r="E37" t="n">
-        <v>30</v>
-      </c>
-      <c r="F37" t="n">
-        <v>4</v>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>2_а5</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
+        <v>4</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>2_а5</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>макс_мес с 25.11.2025 по 25.12.2025</t>
         </is>
@@ -1630,30 +1178,18 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Термобирки белые 30шт</t>
+          <t>Термонаклейка Эльза холодное сердце</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="C38" t="n">
-        <v>0</v>
-      </c>
-      <c r="D38" t="n">
-        <v>79</v>
-      </c>
-      <c r="E38" t="n">
-        <v>30</v>
-      </c>
-      <c r="F38" t="n">
-        <v>12</v>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>3_термобирки</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
+        <v>4</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>2_а5</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>макс_мес с 25.11.2025 по 25.12.2025</t>
         </is>
@@ -1662,30 +1198,18 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Термобирки Единороги</t>
+          <t>Термобирки белые 30шт</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C39" t="n">
-        <v>3</v>
-      </c>
-      <c r="D39" t="n">
-        <v>53</v>
-      </c>
-      <c r="E39" t="n">
-        <v>30</v>
-      </c>
-      <c r="F39" t="n">
-        <v>4</v>
-      </c>
-      <c r="G39" t="inlineStr">
+        <v>12</v>
+      </c>
+      <c r="C39" t="inlineStr">
         <is>
           <t>3_термобирки</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
+      <c r="D39" t="inlineStr">
         <is>
           <t>макс_мес с 25.11.2025 по 25.12.2025</t>
         </is>
@@ -1694,30 +1218,18 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Термобирки Спанч боб, Соник ежик</t>
+          <t>Термобирки Единороги</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="C40" t="n">
-        <v>0</v>
-      </c>
-      <c r="D40" t="n">
-        <v>91</v>
-      </c>
-      <c r="E40" t="n">
-        <v>30</v>
-      </c>
-      <c r="F40" t="n">
-        <v>4</v>
-      </c>
-      <c r="G40" t="inlineStr">
+        <v>4</v>
+      </c>
+      <c r="C40" t="inlineStr">
         <is>
           <t>3_термобирки</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
+      <c r="D40" t="inlineStr">
         <is>
           <t>макс_мес с 25.11.2025 по 25.12.2025</t>
         </is>
@@ -1726,30 +1238,18 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Термобирки Котята</t>
+          <t>Термобирки Спанч боб, Соник ежик</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C41" t="n">
-        <v>4</v>
-      </c>
-      <c r="D41" t="n">
-        <v>58</v>
-      </c>
-      <c r="E41" t="n">
-        <v>30</v>
-      </c>
-      <c r="F41" t="n">
-        <v>2</v>
-      </c>
-      <c r="G41" t="inlineStr">
+        <v>4</v>
+      </c>
+      <c r="C41" t="inlineStr">
         <is>
           <t>3_термобирки</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
+      <c r="D41" t="inlineStr">
         <is>
           <t>макс_мес с 25.11.2025 по 25.12.2025</t>
         </is>
@@ -1758,30 +1258,18 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Термобирки Транспорт</t>
+          <t>Термобирки Котята</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="C42" t="n">
-        <v>1</v>
-      </c>
-      <c r="D42" t="n">
-        <v>64</v>
-      </c>
-      <c r="E42" t="n">
-        <v>30</v>
-      </c>
-      <c r="F42" t="n">
-        <v>2</v>
-      </c>
-      <c r="G42" t="inlineStr">
+        <v>4</v>
+      </c>
+      <c r="C42" t="inlineStr">
         <is>
           <t>3_термобирки</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
+      <c r="D42" t="inlineStr">
         <is>
           <t>макс_мес с 25.11.2025 по 25.12.2025</t>
         </is>
@@ -1790,30 +1278,18 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Термобирки Человек-Паук</t>
+          <t>Термобирки Транспорт</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="C43" t="n">
-        <v>2</v>
-      </c>
-      <c r="D43" t="n">
-        <v>92</v>
-      </c>
-      <c r="E43" t="n">
-        <v>30</v>
-      </c>
-      <c r="F43" t="n">
-        <v>2</v>
-      </c>
-      <c r="G43" t="inlineStr">
+        <v>4</v>
+      </c>
+      <c r="C43" t="inlineStr">
         <is>
           <t>3_термобирки</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
+      <c r="D43" t="inlineStr">
         <is>
           <t>макс_мес с 25.11.2025 по 25.12.2025</t>
         </is>
@@ -1822,30 +1298,38 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
+          <t>Термобирки Человек-Паук</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>4</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>3_термобирки</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>макс_мес с 25.11.2025 по 25.12.2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
           <t>Термобирки Леди Баг</t>
         </is>
       </c>
-      <c r="B44" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="C44" t="n">
-        <v>2</v>
-      </c>
-      <c r="D44" t="n">
-        <v>78</v>
-      </c>
-      <c r="E44" t="n">
-        <v>30</v>
-      </c>
-      <c r="F44" t="n">
-        <v>2</v>
-      </c>
-      <c r="G44" t="inlineStr">
+      <c r="B45" t="n">
+        <v>4</v>
+      </c>
+      <c r="C45" t="inlineStr">
         <is>
           <t>3_термобирки</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
+      <c r="D45" t="inlineStr">
         <is>
           <t>макс_мес с 25.11.2025 по 25.12.2025</t>
         </is>
